--- a/data/Tweets_Negative_CC.xlsx
+++ b/data/Tweets_Negative_CC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="56">
   <si>
     <t>RT @glbl301 : These are only a few instances, but there are many, many more. The more I looked up, the more cases there seemed to be of #Nestlé and other beverage giants like #CocaCola and #Pepsi depriving water poor communities around the world of access to clean drinking water.</t>
   </si>
@@ -23,12 +23,6 @@
 #smac #stonemountain #removetheflag #cocacola #whosehertage https://t.co/CcYtRJ7djU</t>
   </si>
   <si>
-    <t>RT @PatrioticSocia1 : It’s okay to be white.
-There is nothing wrong with it.
-#cocacola
-#BoycottCocacola</t>
-  </si>
-  <si>
     <t>First time trying this and I can’t say that I hate it . #CocaCola  #cokewithcoffee https://t.co/wVHL8rjQAx</t>
   </si>
   <si>
@@ -36,9 +30,6 @@
   </si>
   <si>
     <t>#CocaCola will be more expensive due to the high price of commodities https://t.co/1v4gFq2JrY</t>
-  </si>
-  <si>
-    <t>RT @fordmb1 : The right amount of #CocaCola is zero. Not Coke Zero, but Zero Coke. #Woke #WokeBreakingPoint #boycottcoke #BoycottCocacola #Hypocrites https://t.co/7lme0lTsmv</t>
   </si>
   <si>
     <t>It’s okay to be white.
@@ -64,49 +55,16 @@
 And weren't you asswipes trying to cancel #CocaCola and the #MLB because they called out voter suppression in Georgia? Yes you were! 🤣</t>
   </si>
   <si>
-    <t>Vintage Coca Cola Stained Glass Round Sign Wall Window Hanging Suncatcher 4.5" | eBay #cocacola 
-https://t.co/jUmgBEVNHS https://t.co/sX2NBkvryp</t>
-  </si>
-  <si>
     <t>Desperate times for racist #cocacola https://t.co/pexqWzkxRQ</t>
   </si>
   <si>
-    <t>The right amount of #CocaCola is zero. Not Coke Zero, but Zero Coke. #Woke #WokeBreakingPoint #boycottcoke #BoycottCocacola #Hypocrites https://t.co/7lme0lTsmv</t>
-  </si>
-  <si>
-    <t>Vintage Coca Cola Stained Glass Round Sign Wall Window Hanging Suncatcher 4.5" | #eBay #cocacola 
-https://t.co/jUmgBEVNHS https://t.co/sIEBGr41al</t>
-  </si>
-  <si>
-    <t>RT @mariocavolo : 2. Yes "scrutiny" And what does that "scrutiny" reveal?  #Skechers #Muji #CocaCola #Volkswagen #Apple ALL stated they did over a decade of announced AND unannounced audits and NEVER FOUND A VIOLATION
-Yet you still write this? You didn't know that before I just informed you here?</t>
-  </si>
-  <si>
-    <t>2. Yes "scrutiny" And what does that "scrutiny" reveal?  #Skechers #Muji #CocaCola #Volkswagen #Apple ALL stated they did over a decade of announced AND unannounced audits and NEVER FOUND A VIOLATION
-Yet you still write this? You didn't know that before I just informed you here?</t>
-  </si>
-  <si>
-    <t>7. #Naturgy: 1000
-8. #Ibercaja: 750
-9. #Ford: 630
-10. #PerfumeriasDouglas :          
-492
-11. #Eurest : 411
-12. #Logitravel : 400
-13. #CocaCola Europ. partners: 360
-14. #Bosch : 336
-15. #AdolfoDominguez :300
-16. #SuperSol : 252
-17. #W2M : 246
-18. #Heineken 228
-19. #NH : 187
-👇</t>
-  </si>
-  <si>
     <t>RT @SpokespersonCHN : #Democracy is not #CocaCola, which, with the syrup produced by the United States, tastes the same across the world. The world will be lifeless and dull, if there is only one single model and one single civilization.--State Councillor&amp;amp;FM Wang Yi</t>
   </si>
   <si>
     <t>RT @schoene : we would like to see deliberate efforts and accountability from coca-cola in waste collection or elimination of their plastic materials #CocaCola #plasticpollution #plasticfree #Plastic #Coke</t>
+  </si>
+  <si>
+    <t>Slime bottle. #CocaCola https://t.co/ALjWKOMZsR</t>
   </si>
   <si>
     <t>RT @news_ntd : A Chinese chemist has been convicted of stealing U.S. trade secrets worth nearly $120 million for the #ChineseCommunistParty according to the Justice Department. The chemist stole from a number of American companies, including #CocaCola.
@@ -114,18 +72,6 @@
   </si>
   <si>
     <t>These are only a few instances, but there are many, many more. The more I looked up, the more cases there seemed to be of #Nestlé and other beverage giants like #CocaCola and #Pepsi depriving water poor communities around the world of access to clean drinking water.</t>
-  </si>
-  <si>
-    <t>RT @D_unit91 : $UBT #Unibright #Provide 
-Usecases for Enterprises and some results. 
-Saving #CocaCola 100 mio$ operational costs per year 
-#blockchain 
-#baselineprotocol 
-@BaseledgerNet
-#Ethereum $ETH 
-$Vet #VeChain 
-$BNB #Binance 
-$BTC #Bitcoin https://t.co/Q9yZSS7QEM</t>
   </si>
   <si>
     <t>A Chinese chemist has been convicted of stealing U.S. trade secrets worth nearly $120 million for the #ChineseCommunistParty according to the Justice Department. The chemist stole from a number of American companies, including #CocaCola.
@@ -137,46 +83,16 @@
 ⏩ https://t.co/9JA3Fy4IMf https://t.co/gKKr03EbLZ</t>
   </si>
   <si>
-    <t>$UBT #Unibright #Provide 
-Usecases for Enterprises and some results. 
-Saving #CocaCola 100 mio$ operational costs per year 
-#blockchain 
-#baselineprotocol 
-@BaseledgerNet
-#Ethereum $ETH 
-$Vet #VeChain 
-$BNB #Binance 
-$BTC #Bitcoin https://t.co/Q9yZSS7QEM</t>
-  </si>
-  <si>
-    <t>court terme #bothe #boiron
-long terme   #vrla #rubis  #alpa  #ateme  #schp #exe #idi #stf #pig #lnasante #micropole #icade
-neversell #danone #casino #sony #cocacola #alphabet #Alibaba https://t.co/wfMJc7ygxg</t>
-  </si>
-  <si>
     <t>Nothing wey person no go see for Nigeria, coke is now scarce as if na gold.😏😏 Very soon water 💦 go scarce 😐😐 @CocaCola #coke #CocaCola #Nigeria #lagosfather https://t.co/0N4aqv77tz</t>
   </si>
   <si>
     <t>Hey @CocaCola_GB what’s happening with your products? So foamy and get flat immediately. Really disgusting, absolute waste of money. #cocacola https://t.co/oZ0Nmb0opR</t>
   </si>
   <si>
-    <t>WSB-TV created this graphic that says it all. Stone Mountain has to change to avoid financial ruin. Are the proposal made yesterday enough? https://t.co/z8BXff1AWu
-#smac #whoseheritage #stonemountain #timeforchanges #removetheflag #EconomicDevelopment #GeorgiaUSA #cocacola https://t.co/g3vgNdKDZ7</t>
-  </si>
-  <si>
-    <t>RT @TxGuy2020 : Just left the grocery store and passed up all the woke @CocaCola   Drinks. Bought @drpepper instead. Don’t get woke, Dr. Pepper. #Coke #CocaCola #WokeCorporateHypocrites #WokaCola</t>
-  </si>
-  <si>
-    <t>@CocaCola A life-time drinker of Coke &amp;amp; products, but never again. Wrongly getting involved in political commentary around the better GA voting law is NOT OK! Sadly I'll never drink #CocaCola again. J Quincey CEO should be fired, he doesn't represent Coke drinkers or shareholders</t>
-  </si>
-  <si>
     <t>RT @Ozthaniel : It would suck if @CocaCola offered to send me some Coca Cola with coffee in the dark flavor. (Or any other flavor. It’d be horrible 😉😉 ( Especially considering I can hardly find it anywhere now. ) #cokecoffee #CocaCola #pleasedontdiscontinuemyfavoritedrinkevertoexist</t>
   </si>
   <si>
     <t>It would suck if @CocaCola offered to send me some Coca Cola with coffee in the dark flavor. (Or any other flavor. It’d be horrible 😉😉 ( Especially considering I can hardly find it anywhere now. ) #cokecoffee #CocaCola #pleasedontdiscontinuemyfavoritedrinkevertoexist</t>
-  </si>
-  <si>
-    <t>RT @tavoandshanna : Diet Coke #coke #cocacola we used to spend about 30 dollars a week in diet coke. Guess who has our business now.  #stayoutofpolitics https://t.co/9Bo2em0uk4</t>
   </si>
   <si>
     <t>RT @news_ntd : A Chinese chemist has been convicted of stealing U.S. trade secrets worth nearly $120 million for the #ChineseCommunistParty according to the Justice Department. The chemist stole from a number of American companies, including #CocaCola.
@@ -189,12 +105,6 @@
   <si>
     <t>#FirstAmendment, #censorship, @simonschuster, @viacomCBS, #GOP, #CocaCola. #deltaairlines 
 Publisher Says Not Right Now To Censorship https://t.co/MUIXuWs5kS</t>
-  </si>
-  <si>
-    <t>RT @neilricho1 : @EssexPR @scullyp @JuliaHB1 @Iromg @danwootton @afneil @PoliticsForAlI @mrmarkdolan Unfortunately English pubs aren’t owned by American multinational corporations #CocaCola #McDonalds</t>
-  </si>
-  <si>
-    <t>@EssexPR @scullyp @JuliaHB1 @Iromg @danwootton @afneil @PoliticsForAlI @mrmarkdolan Unfortunately English pubs aren’t owned by American multinational corporations #CocaCola #McDonalds</t>
   </si>
   <si>
     <t>COCA-COLA STOCK (KO) SET TO PLUMMET!!!!   Sell now if you own any!!! #coke #cocacola #stock #djia #nasdaq #finance #sell #morningstar #soda #woke #retirement</t>
@@ -214,24 +124,18 @@
 #THIEF https://t.co/LOXAY5BkkY</t>
   </si>
   <si>
-    <t>#Democracy is not #CocaCola. Political system of every jurisdiction should be designed to fit its own circumstances. Regimes were toppled to copy #US model, but they ended up with all sorts of chaos. https://t.co/DxNlI8aXOO</t>
-  </si>
-  <si>
-    <t>court terme #bothe #boiron
-long terme   #vrla #rubis  #alpa  #ateme  #schp #exe #idi #stf #pig
-neversell #danone #casino #sony #cocacola #alphabet #Alibaba https://t.co/WRnpYLEwX8</t>
-  </si>
-  <si>
     <t>RT @thealexmanners : Over the last two days I have presented another 4 talks to @CPFT_NHS @uhbtrust @CocaColaEP &amp;amp; @ClarionLaw . Everyone with Asperger's is different and my story is just one of many. Here is an extract from my book. 
 #cocacola #nhs #healthcare #healthcareworkers #doctors #hospital https://t.co/rqIqnTE1rQ</t>
   </si>
   <si>
+    <t>RT @China2ASEAN : #WangYi: #Democracy is not #CocaCola, which, with the syrup produced by the #US, tastes the same across the world. The world will be lifeless &amp;amp;dull if there's only one single model &amp;amp; one single civilization. https://t.co/D6XkTh4vkV</t>
+  </si>
+  <si>
     <t>#Democracy is not #CocaCola, which, with the syrup produced by the United States, tastes the same across the world. The world will be lifeless and dull, if there is only one single model and one single civilization.--State Councillor&amp;amp;FM Wang Yi</t>
   </si>
   <si>
-    <t>RT @CryptoJoker12 : don't be trapped in the short-term volatility. 
-just a year ago #Bitcoin was $5k and #xrp at $0.17.
-Inflation is coming. Even #CocaCola gonna be more expensive. In such a market, I don't think #Gold  #Silver  #BTC #DGB #xrp #xlm  #cryptocurrency gonna be any cheaper.</t>
+    <t>Former #CocaCola Employee Convicted of Stealing $120 Million Worth of #Trade #secrets to Sell in #China
+ https://t.co/jpH427NaTB</t>
   </si>
   <si>
     <t>Can't believe these young lads are in their late 60s early 70s now. #Coke #CocaCola #Seventies #Nostalgia https://t.co/dmYeSCTwg4</t>
@@ -247,68 +151,11 @@
     <t>@DietCoke No thank you 🤢🤢🤮 never again #WokeCoke your disgusting and unhealthy anyway .. drink Water! Not made by #CocaCola</t>
   </si>
   <si>
-    <t>RT @londonbnp : Two reasons to boycott Coca-Cola:
-1. They told their white employees to 'be less white'.
-2. They condemned Georgia's justified #VoterID law, which will help stop election fraud in the #US state.
-#BoycottCocaCola #CocaCola #WokeCoke #WokeACola #coke #GeorgiaState #Georgia https://t.co/Qi6fffv2vG</t>
-  </si>
-  <si>
-    <t>digitalassetbuy: RT @CryptoJoker12: don't be trapped in the short-term volatility. 
-just a year ago #Bitcoin was $5k and #xrp at $0.17.
-Inflation is coming. Even #CocaCola gonna be more expensive. In such a market, I don't think #Gold  #Silver  #BTC #DGB #xrp #xlm  #cryptoc…</t>
-  </si>
-  <si>
     <t>RT @WokeJoke5 : #CocaCola STRUCK OUT on the #GeorgiaVotingLaw ! Blacks are among the many groups less likely to buy these unhealthy drinks!
 Poll Shows After Coke CEO Poured on Outrage at Georgia Election Law, Public Support Goes Flat https://t.co/eMQJpdDA6m</t>
   </si>
   <si>
     <t>If you remain Woke, you will become Broke. #CocaCola</t>
-  </si>
-  <si>
-    <t>LOL #BrokaCola Quincey got woke and went broke.  People bought his product during the pandemic.  He's making up excuses cause he f***ed up and now he'll pay the price for promoting racist trash. 
-#CocaCola &amp;lt; #DrPepper 
-https://t.co/YjR0hFq8wP</t>
-  </si>
-  <si>
-    <t>RT @DebraMartz : "Drink Coca Cola" by Debra Martz 
-#CocaCola #GhostSigns #Viintage #SignsOnBuildings
-Available as #WallArt #Totebags and much more
-https://t.co/Q1HaGOla74 https://t.co/DEB0wK0is9</t>
-  </si>
-  <si>
-    <t>RT @partyexcusespro : ColaDay .com now available!
-https://t.co/KrBMpZIfZ3 is for sale at GoDaddy .com 
-https://t.co/JaQ87eIwzX
-#ColaDay #NationalColaDay
-#CocaCola #Pepsi #cola 
-#domain #domainforsale #domains https://t.co/zzmR0yEHBA</t>
-  </si>
-  <si>
-    <t>ColaDay .com now available!
-https://t.co/KrBMpZIfZ3 is for sale at GoDaddy .com 
-https://t.co/JaQ87eIwzX
-#ColaDay #NationalColaDay
-#CocaCola #Pepsi #cola 
-#domain #domainforsale #domains https://t.co/zzmR0yEHBA</t>
-  </si>
-  <si>
-    <t>Don't be trapped in the short-term volatility. 
-just a year ago #Bitcoin was $5k and #xrp at $0.17.
-Inflation is coming. Even #CocaCola gonna be more expensive. In such a market, I don't think #Gold  #Silver  #BTC #DGB #xrp #xlm  #cryptocurrency gonna be any cheaper.</t>
-  </si>
-  <si>
-    <t>Vintage Coca Cola Stained Glass Round Sign Wall Window Hanging Suncatcher 4.5" | #eBay #cocacola 
-https://t.co/jUmgBEVNHS https://t.co/YvDH2cfBPY</t>
-  </si>
-  <si>
-    <t>Vintage Coca Cola Stained Glass Round Sign Wall Window Hanging Suncatcher 4.5" | eBay #cocacola 
-https://t.co/jUmgBEVNHS https://t.co/qidqJ82zyx</t>
-  </si>
-  <si>
-    <t>Is Coca-Cola Getting Cold Feet in Its Wedding to Wokeness?
-https://t.co/gCirt2QtbA
-Please, share!
-#CocaCola #Coke #Racism #BradleyGrayton #CriticalRaceTheory #Oligarchy #Progressives #Leftism #Woke #ProgressiveAgenda #GreatReset #UndergroundUSA #News</t>
   </si>
   <si>
     <t>RT @SamparkRaj1 : #भारत_का_वीर_पुत्र_मोदी 
@@ -316,9 +163,6 @@
 #JAPAN stopped buying even needle from US when they dropped Nuke</t>
   </si>
   <si>
-    <t>It was sold to #CocaCola I read. The best water before the gullible sale https://t.co/Y7L45V8W3O</t>
-  </si>
-  <si>
     <t>Another day, another episode of politicians whining about racism while we let corporations dump plastic into the ocean, not giving a fuck that it’s poisoning the same people they’re whining for. #cocacola</t>
   </si>
   <si>
@@ -330,9 +174,6 @@
 #JAPAN stopped buying even needle from US when they dropped Nuke</t>
   </si>
   <si>
-    <t>@ActualidadRT #COCACOLA NO WAY MORE..! https://t.co/9YKKS0ZPM0</t>
-  </si>
-  <si>
     <t>Never thought that I would have to boycott so many things in my life due to politics. 
 And here I am...
 #CocaCola #United #NFL #MLB #ProSports #NBA #LebronJames #ListGoesOn #Boycott</t>
@@ -347,9 +188,6 @@
     <t>US #Democracy as not good for health and limited in use just as #CocaCola is and should be taken with medical prescriptions only. https://t.co/iGDZR1f8bu</t>
   </si>
   <si>
-    <t>@SpokespersonCHN US #Democracy as not good for health and limited in use just as #CocaCola is and should be taken with medical prescription only.</t>
-  </si>
-  <si>
     <t>Former #CocaCola Employee Convicted of #Stealing $120 Million Worth of #TradeSecrets to Sell in #China
  https://t.co/F0PLYpoTDN</t>
   </si>
@@ -366,34 +204,7 @@
     <t>Global consumer companies wary of Covid-19 surge in India #Covid19Surge #CocaCola #PernodRicard #Whirlpool #Skechers #ProcterGamble  https://t.co/pVcEsRz6dy</t>
   </si>
   <si>
-    <t>Steven Today best tv movies feature
-#stevenseagal 
-Buy best action https://t.co/wtfNAv9t7Y 
-#CocaCola #popcorn 
-#Chicago #Illinois
-#Boston #Massachusetts
-#NYC
-#WashingtonDC
-#Tennessee
-#Texas
-#Nashville #USA 
-#XFINITY #CoxComm #EU #ShawInfo
-#tdstelecom #dish #comcast #DIRECTV 
-#UK https://t.co/nghwOFMl0b</t>
-  </si>
-  <si>
-    <t>don't be trapped in the short-term volatility. 
-just a year ago #Bitcoin was $5k and #xrp at $0.17.
-Inflation is coming. Even #CocaCola gonna be more expensive. In such a market, I don't think #Gold  #Silver  #BTC #DGB #xrp #xlm  #cryptocurrency gonna be any cheaper.</t>
-  </si>
-  <si>
-    <t>@ElliottZaagman The #CCP trying to sound clever and failing miserably! The funny thing is, the world is #cocacola - we all want freedom! Unlike the corrupt and evil CCP!</t>
-  </si>
-  <si>
     <t>its so refreshing and kakilig to hear BTS voices on TV huhuhu love u @BTS_twt #Cocacola</t>
-  </si>
-  <si>
-    <t>RT @ChinaCG_NYC : #democracy is NOT #CocaCola that promises the same taste everywhere in the world. State Councilor &amp;amp; FM #WangYi said during an online communication with The Council on Foreign Relations @CFR_org . https://t.co/2AShFKA48C</t>
   </si>
   <si>
     <t>So for the tally...
@@ -403,20 +214,6 @@
   <si>
     <t>#CocaCola STRUCK OUT on the #GeorgiaVotingLaw ! Blacks are among the many groups less likely to buy these unhealthy drinks!
 Poll Shows After Coke CEO Poured on Outrage at Georgia Election Law, Public Support Goes Flat https://t.co/eMQJpdDA6m</t>
-  </si>
-  <si>
-    <t>WE MUST DISTRUST AND VERIFY when dealing with #CCP! 
-#WarRoomPandemic #CocaCola #CommunistChina #China #AmericaFirst #USA #BREAKING https://t.co/lyOV2VbWc7</t>
-  </si>
-  <si>
-    <t>@CocaCola First thinks they are woke by being racist to whites then have trade secrets almost stolen hahaha you get what you deserve you pieces of trash. #cocacola #woke</t>
-  </si>
-  <si>
-    <t>#democracy is NOT #CocaCola that promises the same taste everywhere in the world. State Councilor &amp;amp; FM #WangYi said during an online communication with The Council on Foreign Relations @CFR_org . https://t.co/2AShFKA48C</t>
-  </si>
-  <si>
-    <t>Vintage Coca Cola Stained Glass Round Sign Wall Window Hanging Suncatcher 4.5" | #eBay #cocacola 
-https://t.co/jUmgBEVNHS https://t.co/vyfSJvLmIM</t>
   </si>
   <si>
     <t>RT @pccote66 : #OnThisDay 04/23/85
@@ -435,21 +232,7 @@
 #FlashbackFriday</t>
   </si>
   <si>
-    <t>Someone could have had a nice settlement with #CocaCola if they got torpedoed with it and had to have the projectile surgically removed from one of their holes 🕳 🤣😂 https://t.co/qyaA2cQmpW</t>
-  </si>
-  <si>
-    <t>All US companies left #SouthAfrica to boycott #apartheid in 1980-1982 except #cocacola &amp;amp; #ShellGas. Then #cokecola after much pressure finally pulled out in 1986? Good Luck with #cokecola #GA! #CantTrustDem</t>
-  </si>
-  <si>
     <t>@USATODAY Weren't there 2 companies that stayed in #SouthAfrica when all other US companies pulled out b/c we were boycotting #Apartheid? Was #CocaCola one of those companies that stayed?</t>
-  </si>
-  <si>
-    <t>Yes ! ColaDay .com now available!
-https://t.co/KrBMpZIfZ3 is for sale at GoDaddy .com 
-https://t.co/JaQ87eIwzX
-#ColaDay #NationalColaDay
-#CocaCola #Pepsi #cola 
-#domain #domainforsale #domains https://t.co/VbQMC7KRBU</t>
   </si>
 </sst>
 </file>
@@ -807,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A508"/>
+  <dimension ref="A1:A370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,207 +618,207 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -1045,1577 +828,1577 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="362" spans="1:1">
@@ -2625,732 +2408,42 @@
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1">
-      <c r="A507" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
